--- a/Tools/ELK/ELK - Installation- Task details.xlsx
+++ b/Tools/ELK/ELK - Installation- Task details.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Certification" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ElasticSearchYMLVariables" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ES roles And Custom users" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="ELK Product installation steps" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Task Cheat Sheat" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Fortum info" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Fortum Task" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ES Administration Tutorials" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="ES Usecase Tutorials" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="259">
   <si>
     <t xml:space="preserve">https://training.elastic.co/</t>
   </si>
@@ -83,58 +84,64 @@
     <t xml:space="preserve">Exam fee   ( this is not yet finalized by company, but schedulded may 2020 )</t>
   </si>
   <si>
-    <t xml:space="preserve">variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descriptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xpack.security.hide_settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to hide any senstive information by API output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xpack.security.http.ssl.enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true/false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xpack.security.http.ssl.verification_mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">certificate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action.auto_create_index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list of index pattern can be created automatically</t>
-  </si>
-  <si>
-    <t xml:space="preserve">node.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xpack.security.audit.enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enable audit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xpack.security.audit.logfile.events.include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xpack.security.audit.logfile.events.exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xpack.security.audit.logfile.events.emit_request_body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indices.fielddata.cache.size</t>
+    <t xml:space="preserve">Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snapshot_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snapshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ole that can be assigned to the user who is calling the snapshot endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortum_ES_Backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">who will have snapshot_user role, who takes ONLY backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cluser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cluster privileges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote_monitoring_collector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote_monitoring_agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote_monitoring_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create on custom user and have this this role to monitor production cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kibana_admin</t>
   </si>
   <si>
     <t xml:space="preserve">Category</t>
@@ -144,9 +151,6 @@
   </si>
   <si>
     <t xml:space="preserve">File Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
   </si>
   <si>
     <t xml:space="preserve">Reference</t>
@@ -224,6 +228,9 @@
     <t xml:space="preserve">Configure IP and Port number explicitly, which enable “production mode”</t>
   </si>
   <si>
+    <t xml:space="preserve">prefer to use IP address rather than hostname. It requires DNS lookup</t>
+  </si>
+  <si>
     <t xml:space="preserve">discovery.type and discovery.seed_hosts</t>
   </si>
   <si>
@@ -231,6 +238,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/current/modules-discovery-settings.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure dedicated at least THREE master node (instance of ES )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">three master eligible node should be there in a cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one voting only master node among three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure path.data to outside of ES installed folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i prefer to use tar version of ES. So keep data outside of home folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need to configure node.processor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it is expert level setting. Double check really need</t>
   </si>
   <si>
     <t xml:space="preserve">do all the configuration need to success in bootstrap check</t>
@@ -447,28 +475,101 @@
     <t xml:space="preserve">create watcher for notifications</t>
   </si>
   <si>
-    <t xml:space="preserve">Installation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monitor one application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLA with heartbeat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Securing ElasticSearch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enable SSL ( https )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/current/ssl-tls.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable Trial licence</t>
+    <t xml:space="preserve">to reset password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vilma.fortum.com/Citrix/VilmaWeb/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try multi-node cluster in  GCP including beats &amp; kibana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequency </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting KT on each application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES – Administrator
+( 12 – 15 days )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production servers setups – un predictable time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the server level configurations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it is useful, when prod cluster completely down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure native ream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this native realm is need to create custom user to manage ES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use basic authentication to communicate among Elastic projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom User creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at least few users, to manage ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user role mapping for native realm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. applications has fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate generation and distribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for TLS/SSL communication among node and clients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery date fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encryption of communication among nodes and servers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARS may not updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeatative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shard and Replica settings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index template. Beats’s default template my help here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snapshot settings &amp; Registry creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it is mandatory for restore cluster from failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">often</t>
   </si>
   <si>
     <r>
@@ -478,17 +579,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Alert and Integration with 3</t>
+      <t xml:space="preserve">snapshot </t>
     </r>
     <r>
       <rPr>
-        <vertAlign val="superscript"/>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rd</t>
+      <t xml:space="preserve">.security</t>
     </r>
     <r>
       <rPr>
@@ -497,65 +598,120 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> party system</t>
+      <t xml:space="preserve"> index regularly</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Snapshot &amp; backup plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shard &amp; replicat setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to reset password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://vilma.fortum.com/Citrix/VilmaWeb/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ElasticSearch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configure native ream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Getting KT on each application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get access to all the servers for service account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user role mapping for native realm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery date fixed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shard and Replica settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. applications has fixed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encryption of communication among nodes and servers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production servers setups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARS may not updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santhoshi</t>
+    <t xml:space="preserve">it is special index, has to be taken separtly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manual backup of config files once in a week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can we use any SCM like git...password, keys are there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export cluster seting by API and keep them as back up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">often based on monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance tuning parameters configuring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup Monitoring cluster for Production cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run in  DEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usually, SEPARATE single node ELK to monitor ES cluster itself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define/validate ILM policy for index of beats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the default policy created by Beats is enough, but if need change them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reindex on exiting index based on load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILM may help </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rollover index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rollup job creattion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summarize documents in a index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split &amp; shirnk, force merge shards of a index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flush API call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it has to be done once in a day, or going to restart cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look for index, that need ReIndex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">different issues/partition to go for reindex into new Index of exiting one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updating license</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need cross cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As of no need. It is requies only HA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELK – Administrator
+( 5 – 8 days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Server configuraion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARS Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watcher definition for every index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geo ip database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibana – use case developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELK – Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management by Kibana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secure Kibana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beat -Use Case Developer</t>
   </si>
   <si>
     <t xml:space="preserve">HeartBeat</t>
@@ -567,10 +723,31 @@
     <t xml:space="preserve">URL – https</t>
   </si>
   <si>
-    <t xml:space="preserve">?? AHC ??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WinlogBeat / Audit beat</t>
+    <t xml:space="preserve">Proxy configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLS version  for url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location Processor to configure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WinlogBeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audit beat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use custom fields configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we can use this to send to appropriate index when more than index are used in ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure auditbeat.yml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metricbeat</t>
   </si>
   <si>
     <t xml:space="preserve">16 applications ( 10+ servers on each app )</t>
@@ -582,20 +759,177 @@
     <t xml:space="preserve">one or more servers</t>
   </si>
   <si>
-    <t xml:space="preserve">Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open 443, 80 ports in Hearbeat DEV &amp; Prod server</t>
+    <t xml:space="preserve">20+ URL + Service monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">man days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per application in days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my effort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one application  - one resource – one week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geeting information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of knowlege repossitory is low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">her efffort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configuring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirement gathering is taking more time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access to actual servers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R &amp; D effort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is new to this custorem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if i get 2 resource well and good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Till Production setup, I will fully occupied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if not resource, can we take and deliver URL monitoring First </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic / Chapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impartant Command line tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/master/commands.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup ElasticSearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/master/setup.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secure Cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/master/secure-cluster.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up a Cluster for high availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/master/high-availability.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor a Cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/master/monitor-elasticsearch-cluster.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/master/index-modules.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILM: Manage the index lifecyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/master/index-lifecycle-management.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/master/index-templates.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frozen indices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/master/frozen-indices.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snapshot and restore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/master/snapshot-restore.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roll up or transform your data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/master/data-rollup-transform.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/master/how-to.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some of  REST APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/master/rest-apis.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade ElasticSearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/master/setup-upgrade.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoscaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/master/xpack-autoscaling.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breaking Changs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elastic.co/guide/en/elasticsearch/reference/master/breaking-changes.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -668,13 +1002,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFCE181E"/>
       <name val="Arial"/>
@@ -682,7 +1009,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,25 +1031,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF9AE"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFF685"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87D1D1"/>
+        <bgColor rgb="FFADC5E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFE3D200"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBCAED5"/>
-        <bgColor rgb="FFC7A0CB"/>
+        <fgColor rgb="FFDFCCE4"/>
+        <bgColor rgb="FFBEE3D3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF68E76"/>
-        <bgColor rgb="FFF7A19A"/>
+        <bgColor rgb="FFF37B70"/>
       </patternFill>
     </fill>
     <fill>
@@ -734,19 +1067,67 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7A19A"/>
+        <bgColor rgb="FFF8AA97"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA61A"/>
+        <bgColor rgb="FFF79448"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCAED5"/>
+        <bgColor rgb="FFC7A0CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF58220"/>
+        <bgColor rgb="FFF79448"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF37B70"/>
+        <bgColor rgb="FFF3715A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD58A"/>
+        <bgColor rgb="FF89C765"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCC79B"/>
+        <bgColor rgb="FFF8AA97"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79448"/>
         <bgColor rgb="FFF68E76"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAA61A"/>
-        <bgColor rgb="FFFFCC00"/>
+        <fgColor rgb="FFF04E4D"/>
+        <bgColor rgb="FFF3715A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF87D1D1"/>
-        <bgColor rgb="FFADC5E7"/>
+        <fgColor rgb="FFFFF685"/>
+        <bgColor rgb="FFFFF9AE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8AA97"/>
+        <bgColor rgb="FFF7A19A"/>
       </patternFill>
     </fill>
     <fill>
@@ -758,7 +1139,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3715A"/>
-        <bgColor rgb="FFF68E76"/>
+        <bgColor rgb="FFF37B70"/>
       </patternFill>
     </fill>
     <fill>
@@ -770,7 +1151,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAA55A1"/>
-        <bgColor rgb="FF993366"/>
+        <bgColor rgb="FFF04E4D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF72BF44"/>
+        <bgColor rgb="FF89C765"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3D200"/>
+        <bgColor rgb="FFFFF200"/>
       </patternFill>
     </fill>
   </fills>
@@ -815,7 +1208,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -876,28 +1269,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -908,91 +1293,207 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1008,7 +1509,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFF8AA97"/>
       <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1018,22 +1519,22 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FFF79448"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF009598"/>
       <rgbColor rgb="FFBCAED5"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFF3715A"/>
+      <rgbColor rgb="FF87D1D1"/>
       <rgbColor rgb="FFAA55A1"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFFFF685"/>
+      <rgbColor rgb="FFADD58A"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFF68E76"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FF87D1D1"/>
+      <rgbColor rgb="FFF37B70"/>
+      <rgbColor rgb="FF1B75BC"/>
+      <rgbColor rgb="FFDFCCE4"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFDB94D"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1046,21 +1547,21 @@
       <rgbColor rgb="FFADC5E7"/>
       <rgbColor rgb="FFF7A19A"/>
       <rgbColor rgb="FFC7A0CB"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFCC79B"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF59C5C7"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FF72BF44"/>
+      <rgbColor rgb="FFE3D200"/>
       <rgbColor rgb="FFFAA61A"/>
-      <rgbColor rgb="FFF3715A"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFF58220"/>
+      <rgbColor rgb="FFF68E76"/>
+      <rgbColor rgb="FF89C765"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFF04E4D"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
@@ -1071,12 +1572,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFDB94D"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B6:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1275,183 +1777,217 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFE3D200"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D26"/>
+  <dimension ref="B4:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="60.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="2.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="48.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="15" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16" t="s">
+      <c r="G4" s="17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="H4" s="17" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="E25" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1469,10 +2005,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:F44"/>
+  <dimension ref="B4:F48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1487,479 +2023,527 @@
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="D4" s="19" t="s">
         <v>41</v>
       </c>
+      <c r="E4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="22" t="s">
         <v>46</v>
       </c>
+      <c r="F5" s="22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="23"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="23"/>
-      <c r="C7" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="23"/>
-      <c r="C8" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="24" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="C10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="23"/>
-      <c r="C11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="23"/>
-      <c r="C12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="28" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="D12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22" t="s">
+        <v>62</v>
+      </c>
       <c r="F13" s="27"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="28" t="s">
-        <v>60</v>
-      </c>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="29"/>
-      <c r="C15" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="29"/>
-      <c r="C16" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="29"/>
-      <c r="C17" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="D16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-    </row>
-    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="30" t="s">
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="28"/>
+      <c r="C19" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="31"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D19" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="28"/>
+      <c r="C20" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="28"/>
+      <c r="C21" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="29"/>
-      <c r="C24" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="C23" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="29"/>
-      <c r="C25" s="16" t="s">
+      <c r="D23" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="C25" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="29"/>
-      <c r="C26" s="16" t="s">
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="30"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="C27" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="D27" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="28"/>
+      <c r="C28" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="D28" s="22" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="29"/>
-      <c r="C27" s="32" t="s">
+      <c r="E28" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="33" t="s">
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="28"/>
+      <c r="C29" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="27"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="29" t="s">
+      <c r="D29" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="E29" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="27" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="29"/>
-      <c r="C30" s="16" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="29"/>
-      <c r="C31" s="16" t="s">
+      <c r="F30" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="27"/>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="28"/>
+      <c r="C31" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="29"/>
-      <c r="C34" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="35" t="s">
+      <c r="B33" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="C33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="16"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="28"/>
+      <c r="C34" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="29"/>
-      <c r="C35" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="28" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="29"/>
-      <c r="C36" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="16" t="s">
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="28"/>
+      <c r="C38" s="34" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="29" t="s">
+      <c r="D38" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="E38" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="29"/>
-      <c r="C39" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="29"/>
-      <c r="C40" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="29"/>
-      <c r="C41" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="28"/>
+      <c r="C45" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="22"/>
+      <c r="C48" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B42:B45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1" display="https://www.elastic.co/guide/en/elasticsearch/reference/current/modules-discovery-settings.html"/>
-    <hyperlink ref="F14" r:id="rId2" display="https://www.elastic.co/guide/en/elasticsearch/reference/current/bootstrap-checks.html"/>
-    <hyperlink ref="F25" r:id="rId3" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/get-started-kibana-user.html"/>
-    <hyperlink ref="F26" r:id="rId4" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/get-started-users.html"/>
-    <hyperlink ref="F29" r:id="rId5" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/watch-cluster-status.html"/>
-    <hyperlink ref="F35" r:id="rId6" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/defining-roles.html"/>
-    <hyperlink ref="F36" r:id="rId7" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/anonymous-access.html"/>
+    <hyperlink ref="F18" r:id="rId2" display="https://www.elastic.co/guide/en/elasticsearch/reference/current/bootstrap-checks.html"/>
+    <hyperlink ref="F29" r:id="rId3" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/get-started-kibana-user.html"/>
+    <hyperlink ref="F30" r:id="rId4" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/get-started-users.html"/>
+    <hyperlink ref="F33" r:id="rId5" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/watch-cluster-status.html"/>
+    <hyperlink ref="F39" r:id="rId6" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/defining-roles.html"/>
+    <hyperlink ref="F40" r:id="rId7" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/anonymous-access.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1974,124 +2558,760 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF1B75BC"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:E16"/>
+  <dimension ref="B3:H73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="60.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="16"/>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="22"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="22"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="22"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
-        <v>114</v>
+      <c r="D5" s="37" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="22"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>117</v>
+      <c r="B8" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="16"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="28"/>
+      <c r="C11" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="22"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="16"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="32"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="32"/>
-      <c r="C15" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="16"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="32"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="28"/>
+      <c r="C17" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="28"/>
+      <c r="C18" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="28"/>
+      <c r="C19" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="28"/>
+      <c r="C20" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="28"/>
+      <c r="C21" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="28"/>
+      <c r="C22" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="28"/>
+      <c r="C23" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="28"/>
+      <c r="C24" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="28"/>
+      <c r="C25" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="28"/>
+      <c r="C26" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="28"/>
+      <c r="C27" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="28"/>
+      <c r="C28" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="28"/>
+      <c r="C29" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="28"/>
+      <c r="C30" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="28"/>
+      <c r="C31" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="28"/>
+      <c r="C32" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" s="40"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="28"/>
+      <c r="C35" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="28"/>
+      <c r="C36" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="28"/>
+      <c r="C37" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="51"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="52"/>
+      <c r="C40" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="54"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="54"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="56"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="54"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="54"/>
+      <c r="C49" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="54"/>
+      <c r="C50" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="54"/>
+      <c r="C51" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="54"/>
+      <c r="C52" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="58"/>
+      <c r="D54" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="62" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="0" t="s">
+        <v>221</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B9:B32"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B44:B52"/>
+    <mergeCell ref="C44:C48"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" display="https://www.elastic.co/guide/en/elasticsearch/reference/current/ssl-tls.html"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://vilma.fortum.com/Citrix/VilmaWeb/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2106,210 +3326,299 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFCE181E"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:F28"/>
+  <dimension ref="B4:E23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.96"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="63" width="5.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="79.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="64" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>123</v>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="67" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="B8" s="67" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="32" t="s">
-        <v>127</v>
+      <c r="B9" s="67" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2"/>
+      <c r="B10" s="67" t="n">
+        <v>6</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="38" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="67" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="68"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="39" t="s">
-        <v>132</v>
+      <c r="B12" s="67" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="39" t="s">
-        <v>134</v>
+      <c r="B13" s="67" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>135</v>
+      <c r="B14" s="67" t="n">
+        <v>10</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="40" t="s">
-        <v>137</v>
+      <c r="B15" s="67" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="68" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="B16" s="67" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="67" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>141</v>
+      <c r="B18" s="67" t="n">
+        <v>14</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="B19" s="67" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" s="68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="B20" s="67" t="n">
+        <v>16</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" s="2"/>
+      <c r="B21" s="67" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="E21" s="68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>146</v>
+      <c r="B22" s="67" t="n">
+        <v>18</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" s="68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="0" t="s">
-        <v>148</v>
+      <c r="B23" s="67" t="n">
+        <v>19</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" s="68" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://vilma.fortum.com/Citrix/VilmaWeb/"/>
+    <hyperlink ref="D5" r:id="rId1" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/commands.html"/>
+    <hyperlink ref="D6" r:id="rId2" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/setup.html"/>
+    <hyperlink ref="D7" r:id="rId3" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/secure-cluster.html"/>
+    <hyperlink ref="D8" r:id="rId4" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/high-availability.html"/>
+    <hyperlink ref="D9" r:id="rId5" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/monitor-elasticsearch-cluster.html"/>
+    <hyperlink ref="D11" r:id="rId6" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/index-modules.html"/>
+    <hyperlink ref="D12" r:id="rId7" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/index-lifecycle-management.html"/>
+    <hyperlink ref="D13" r:id="rId8" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/index-templates.html"/>
+    <hyperlink ref="D15" r:id="rId9" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/frozen-indices.html"/>
+    <hyperlink ref="D16" r:id="rId10" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/snapshot-restore.html"/>
+    <hyperlink ref="D17" r:id="rId11" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/data-rollup-transform.html"/>
+    <hyperlink ref="D19" r:id="rId12" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/how-to.html"/>
+    <hyperlink ref="D20" r:id="rId13" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/rest-apis.html"/>
+    <hyperlink ref="D21" r:id="rId14" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/setup-upgrade.html"/>
+    <hyperlink ref="D22" r:id="rId15" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/xpack-autoscaling.html"/>
+    <hyperlink ref="D23" r:id="rId16" display="https://www.elastic.co/guide/en/elasticsearch/reference/master/breaking-changes.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2319,4 +3628,31 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF89C765"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>